--- a/18/sdamgia/todo60260.xlsx
+++ b/18/sdamgia/todo60260.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmprojects\ege_bk\18\sdamgia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66B59E-B23B-4AAB-B0EA-E996BDDE964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF8081A-0E1A-40A0-9C0E-3911A8E58E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27570" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1806,7 @@
         <v>1001</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="0"/>
+        <f>T1+S24</f>
         <v>1018</v>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>2348</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -1983,7 +1983,6 @@
         <v>1</v>
       </c>
       <c r="Y26">
-        <f>MIN(R38,L43,T43)</f>
         <v>718</v>
       </c>
     </row>
@@ -2079,7 +2078,7 @@
         <v>361</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:D28" si="3">C5+B28</f>
+        <f t="shared" ref="C28" si="3">C5+B28</f>
         <v>422</v>
       </c>
       <c r="D28" s="4">
@@ -2251,7 +2250,7 @@
         <v>433</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E28:E37" si="5">E7+E29</f>
+        <f t="shared" ref="E30:E36" si="5">E7+E29</f>
         <v>348</v>
       </c>
       <c r="F30">
@@ -2427,7 +2426,7 @@
         <v>393</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="2"/>
+        <f>H9+H31</f>
         <v>636</v>
       </c>
       <c r="I32" s="7">
@@ -2513,7 +2512,7 @@
         <v>426</v>
       </c>
       <c r="I33">
-        <f t="shared" ref="H33:M33" si="6">I10+H33</f>
+        <f t="shared" ref="I33:M33" si="6">I10+H33</f>
         <v>445</v>
       </c>
       <c r="J33">
@@ -2743,7 +2742,7 @@
         <v>722</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f>E13+E35</f>
         <v>730</v>
       </c>
       <c r="F36">
@@ -2841,7 +2840,7 @@
         <v>515</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" ref="I37:L37" si="7">I14+H37</f>
+        <f t="shared" ref="I37:K37" si="7">I14+H37</f>
         <v>530</v>
       </c>
       <c r="J37" s="1">
@@ -2853,11 +2852,11 @@
         <v>623</v>
       </c>
       <c r="L37" s="4">
-        <f t="shared" ref="L37:L43" si="8">L14+L36</f>
+        <f t="shared" ref="L37:M43" si="8">L14+L36</f>
         <v>530</v>
       </c>
-      <c r="M37">
-        <f>MIN(L37,M36)+M14</f>
+      <c r="M37" s="5">
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="N37">
@@ -2938,8 +2937,8 @@
         <f>MIN(K38,L37)+L15</f>
         <v>595</v>
       </c>
-      <c r="M38">
-        <f>MIN(L38,M37)+M15</f>
+      <c r="M38" s="5">
+        <f t="shared" si="8"/>
         <v>567</v>
       </c>
       <c r="N38">
@@ -2963,7 +2962,7 @@
         <v>718</v>
       </c>
       <c r="S38">
-        <f t="shared" si="4"/>
+        <f>S15+S37</f>
         <v>1355</v>
       </c>
       <c r="T38" s="2">
@@ -3020,8 +3019,8 @@
         <f>MIN(K39,L38)+L16</f>
         <v>651</v>
       </c>
-      <c r="M39">
-        <f>MIN(L39,M38)+M16</f>
+      <c r="M39" s="5">
+        <f t="shared" si="8"/>
         <v>613</v>
       </c>
       <c r="N39">
@@ -3033,7 +3032,7 @@
         <v>622</v>
       </c>
       <c r="P39">
-        <f t="shared" ref="P39:R39" si="9">P16+O39</f>
+        <f>P16+O39</f>
         <v>693</v>
       </c>
       <c r="Q39">
@@ -3041,7 +3040,7 @@
         <v>755</v>
       </c>
       <c r="R39">
-        <f t="shared" si="9"/>
+        <f>R16+Q39</f>
         <v>799</v>
       </c>
       <c r="S39">
@@ -3102,8 +3101,8 @@
         <f>MIN(K40,L39)+L17</f>
         <v>663</v>
       </c>
-      <c r="M40">
-        <f>MIN(L40,M39)+M17</f>
+      <c r="M40" s="5">
+        <f t="shared" si="8"/>
         <v>692</v>
       </c>
       <c r="N40">
@@ -3184,8 +3183,8 @@
         <f>MIN(K41,L40)+L18</f>
         <v>726</v>
       </c>
-      <c r="M41">
-        <f>MIN(L41,M40)+M18</f>
+      <c r="M41" s="5">
+        <f t="shared" si="8"/>
         <v>756</v>
       </c>
       <c r="N41">
@@ -3266,13 +3265,13 @@
         <f>MIN(K42,L41)+L19</f>
         <v>743</v>
       </c>
-      <c r="M42">
-        <f>MIN(L42,M41)+M19</f>
-        <v>759</v>
+      <c r="M42" s="5">
+        <f t="shared" si="8"/>
+        <v>772</v>
       </c>
       <c r="N42">
         <f>MIN(M42,N41)+N19</f>
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="O42">
         <f>MIN(N42,O41)+O19</f>
@@ -3348,13 +3347,13 @@
         <f>MIN(K43,L42)+L20</f>
         <v>787</v>
       </c>
-      <c r="M43" s="7">
-        <f>MIN(L43,M42)+M20</f>
-        <v>808</v>
+      <c r="M43" s="6">
+        <f t="shared" si="8"/>
+        <v>821</v>
       </c>
       <c r="N43" s="7">
         <f>MIN(M43,N42)+N20</f>
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="O43" s="7">
         <f>MIN(N43,O42)+O20</f>
